--- a/cypress/e2e/variables/offer.xlsx
+++ b/cypress/e2e/variables/offer.xlsx
@@ -363,11 +363,11 @@
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
